--- a/September'21/02.09.2021/Hello Daffodils Balance Transfer August-2021.xlsx
+++ b/September'21/02.09.2021/Hello Daffodils Balance Transfer August-2021.xlsx
@@ -1274,7 +1274,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
